--- a/biology/Zoologie/Géant_blanc_du_Bouscat/Géant_blanc_du_Bouscat.xlsx
+++ b/biology/Zoologie/Géant_blanc_du_Bouscat/Géant_blanc_du_Bouscat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9ant_blanc_du_Bouscat</t>
+          <t>Géant_blanc_du_Bouscat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Géant blanc du Bouscat est une race de lapin domestique français[1].
+Le Géant blanc du Bouscat est une race de lapin domestique français.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9ant_blanc_du_Bouscat</t>
+          <t>Géant_blanc_du_Bouscat</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu de croisements entre les races Argenté de Champagne, Géant des Flandres et Angora.
 Le Géant blanc du Bouscat est originaire de la région du Bouscat dans la banlieue bordelaise, où la race a été sélectionnée.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9ant_blanc_du_Bouscat</t>
+          <t>Géant_blanc_du_Bouscat</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +559,50 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Animal de grande taille, robuste et assez allongé. Ossature moyenne (assez fine pour un lapin géant). De grande taille mais se différenciant nettement de la stature et de la configuration du Géant des Flandres. La ligne dorsale s'élève régulièrement à partir de la nuque pour former un léger arc à point culminant situé un peu en arrière des hanches.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Animal de grande taille, robuste et assez allongé. Ossature moyenne (assez fine pour un lapin géant). De grande taille mais se différenciant nettement de la stature et de la configuration du Géant des Flandres. La ligne dorsale s'élève régulièrement à partir de la nuque pour former un léger arc à point culminant situé un peu en arrière des hanches.
 L'allure d'ensemble est vive et souple chez l'animal en mouvement. Tronc est particulièrement développé dans sa partie postérieure et épaules bien attachées.
 La croupe, pleine et parfaitement arrondie paraît légèrement relevée. Le râble est assez long et épais. Les cuisses, bien remplies, émergent quelque peu. Les pattes, de longueur moyenne, sont de bonne structure et bien portées.
-Standard
-Poids:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Géant_blanc_du_Bouscat</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9ant_blanc_du_Bouscat</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Poids:
 Mâle = : 6,000 kg et plus. Minimum : 5,000 kg
 Femelle = 6,500 kg et plus. Minimum :5,500 kg
 Fourrure : assez longue, environ 35 - 40 mm, dense et lustrée, sans manquer de finesse. Les poils recteurs, nettement visibles, déterminent le reflet givré du pelage et lui procurent sa bonne tenue.
@@ -562,31 +613,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>G%C3%A9ant_blanc_du_Bouscat</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Géant_blanc_du_Bouscat</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/G%C3%A9ant_blanc_du_Bouscat</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Souches</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Il existe plusieurs souches de la race:
 Par les éleveurs amateurs
